--- a/TutoringModule/CollectiveModelTutor/Its.TutoringModule.CMTutorTest/TestAssets/DomainConf/Domain1.xlsx
+++ b/TutoringModule/CollectiveModelTutor/Its.TutoringModule.CMTutorTest/TestAssets/DomainConf/Domain1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/TutoringModule/CollectiveModelTutor/Its.TutoringModule.CMTutorTest/TestAssets/DomainConf/Domain1.xlsx
+++ b/TutoringModule/CollectiveModelTutor/Its.TutoringModule.CMTutorTest/TestAssets/DomainConf/Domain1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
   <si>
     <t>Phase</t>
   </si>
@@ -148,6 +148,18 @@
   </si>
   <si>
     <t>0-dep on f0t3</t>
+  </si>
+  <si>
+    <t>t2_low_detail\t2_medium_detail\t2_high_detail</t>
+  </si>
+  <si>
+    <t>t3_low_detail\t3_medium_detail\t3_high_detail</t>
+  </si>
+  <si>
+    <t>t4_low_detail\t4_medium_detail\t4_high_detail</t>
+  </si>
+  <si>
+    <t>t5_low_detail\t5_medium_detail\t5_high_detail</t>
   </si>
 </sst>
 </file>
@@ -239,8 +251,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="39">
+  <cellStyleXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -297,7 +311,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="39">
+  <cellStyles count="41">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -317,6 +331,7 @@
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -336,6 +351,7 @@
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -668,10 +684,10 @@
   <dimension ref="A1:Y19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomRight" activeCell="Y9" sqref="Y9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -854,7 +870,9 @@
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
+      <c r="Y3" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="7">
@@ -897,7 +915,9 @@
       </c>
       <c r="W4" s="7"/>
       <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
+      <c r="Y4" s="7" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="8">
@@ -942,7 +962,9 @@
       </c>
       <c r="W5" s="8"/>
       <c r="X5" s="8"/>
-      <c r="Y5" s="8"/>
+      <c r="Y5" s="8" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="8">
@@ -987,7 +1009,9 @@
       </c>
       <c r="W6" s="8"/>
       <c r="X6" s="8"/>
-      <c r="Y6" s="8"/>
+      <c r="Y6" s="8" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="7" spans="1:25">
       <c r="F7" s="1"/>
@@ -1033,6 +1057,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
